--- a/indicadores/tablas/620104.xlsx
+++ b/indicadores/tablas/620104.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,9 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020</t>
   </si>
   <si>
@@ -87,45 +90,6 @@
     <t xml:space="preserve">1999</t>
   </si>
   <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1985</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -135,7 +99,7 @@
     <t xml:space="preserve">nomindicador</t>
   </si>
   <si>
-    <t xml:space="preserve">Gasto público en medio ambiente, vivienda, agua y saneamiento como porcentaje del producto bruto interno</t>
+    <t xml:space="preserve">Gasto público anual per cápita en protección del medio ambiente (en USD constantes de 2010)</t>
   </si>
   <si>
     <t xml:space="preserve">derecho</t>
@@ -147,9 +111,6 @@
     <t xml:space="preserve">conindicador</t>
   </si>
   <si>
-    <t xml:space="preserve">Prioridad macroeconómica del gasto público en medio ambiente, vivienda, agua y saneamiento</t>
-  </si>
-  <si>
     <t xml:space="preserve">tipoind</t>
   </si>
   <si>
@@ -159,13 +120,13 @@
     <t xml:space="preserve">definicion</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador mide el peso del gasto público en vivienda, medio ambiente, agua y saneamiento en el Producto Bruto Interno (PBI).</t>
+    <t xml:space="preserve">El indicador mide el gasto público anual en protección del medio ambiente por habitante, asumiendo que el gasto se distribuye de forma homogénea en la población.</t>
   </si>
   <si>
     <t xml:space="preserve">calculo</t>
   </si>
   <si>
-    <t xml:space="preserve">Para cada año calcular: (Gasto público en vivienda, medio ambiente, agua y saneamiento / PBI)*100</t>
+    <t xml:space="preserve">Para cada año calcular: (Gasto público en protección del medio ambiente / Cantidad de habitantes)*100</t>
   </si>
   <si>
     <t xml:space="preserve">observaciones</t>
@@ -177,7 +138,7 @@
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en DINEM - MIDES / Datos 2019 y 2020 MIDES-MEF-OPP</t>
+    <t xml:space="preserve">UMAD con base en Datos  y estadísticas de CEPAL en base a OPP</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -186,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -505,12 +466,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -525,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3">
@@ -533,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="5">
@@ -549,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="7">
@@ -565,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="10">
@@ -589,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="12">
@@ -605,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="13">
@@ -613,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="14">
@@ -621,7 +582,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +598,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="17">
@@ -645,7 +606,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1.3</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="18">
@@ -653,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="19">
@@ -661,7 +622,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1.4</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="20">
@@ -669,7 +630,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1.4</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="21">
@@ -677,7 +638,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -685,7 +646,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
@@ -693,7 +654,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24">
@@ -701,103 +662,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -807,91 +672,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/620104.xlsx
+++ b/indicadores/tablas/620104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,12 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -90,9 +96,6 @@
     <t xml:space="preserve">1999</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -111,6 +114,9 @@
     <t xml:space="preserve">conindicador</t>
   </si>
   <si>
+    <t xml:space="preserve">Gasto público anual per cápita en protección del medio ambiente</t>
+  </si>
+  <si>
     <t xml:space="preserve">tipoind</t>
   </si>
   <si>
@@ -133,6 +139,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
@@ -486,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7">
@@ -526,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11">
@@ -558,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12">
@@ -566,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="14">
@@ -582,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="15">
@@ -590,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="16">
@@ -598,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="17">
@@ -606,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.98</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18">
@@ -614,7 +626,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -630,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.66</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="21">
@@ -638,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="22">
@@ -646,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="23">
@@ -654,7 +666,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -662,6 +674,22 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -681,82 +709,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
